--- a/data/rough detection evaluation.xlsx
+++ b/data/rough detection evaluation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\Socket_3Detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BDC8E5-EC59-4E9E-9B7B-2A6F5776C3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F7371-979F-4DAB-9F8C-4F4A25F64B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rough detection" sheetId="1" r:id="rId1"/>
+    <sheet name="fine detection" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,19 +26,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>dataset\iteration number</t>
   </si>
   <si>
     <t>Overlapping volume (cm³)</t>
   </si>
+  <si>
+    <t>the reasonability of dataset/ epoch</t>
+  </si>
+  <si>
+    <t>the invalid of result</t>
+  </si>
+  <si>
+    <t>delta Dx, Dy, Dz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +60,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,12 +90,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -165,11 +186,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$Z$3</c:f>
+              <c:f>'rough detection'!$B$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -274,11 +307,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$Z$4</c:f>
+              <c:f>'rough detection'!$B$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -364,6 +409,248 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E230-4CC5-A8F4-098B1D9B4466}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>600</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$5:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>192943.42320461301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164838.78025889699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192139.732520183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174737.576945532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178606.44359669599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179008.019231415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193794.93435161101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178611.457279428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191142.30844421801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193011.270441684</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184061.22517047499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192725.15614813101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216658.30164847101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>197000.234631523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200291.55616329299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197917.980164098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196013.051651791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>191568.38263238099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194687.88560460799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200740.91696159699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201138.45577176899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201779.90528163599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213017.46494762399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>202916.658079499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>201372.753184726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C6C-4167-BC16-F094F78E7D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$6:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>189901.22322230201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199062.04556232199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172397.608419714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186611.00753969501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182162.94362475301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189142.22611109601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190579.537922146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191894.96544036799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202046.52989996201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>172903.736613635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168761.21459294701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184493.17781172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143292.08947606399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168315.125027236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185729.64778636099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>186544.73067736701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>186766.417108375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187086.52600648001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>189617.68501285801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184567.81942960501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197620.75767372799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>199334.67649695999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>196490.25449613799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>194962.32680971999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202557.498805924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC8C-4036-8355-514DBCC37164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -375,6 +662,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="614078128"/>
         <c:axId val="614078456"/>
@@ -495,6 +783,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43837950446752699"/>
+          <c:y val="0.95995059202717437"/>
+          <c:w val="0.25425904614514167"/>
+          <c:h val="4.0049578824236334E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -563,7 +861,687 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$7:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10267.223222302011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19428.04556232199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7236.3915802859992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6977.0075396950124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2528.9436247530102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9508.2261110960098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10945.537922146003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12260.965440367989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22412.529899962014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6730.2633863649971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10872.785407052987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4859.177811720001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36341.910523936007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11318.874972763995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6095.6477863609907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6910.7306773670134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7132.417108374997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7452.5260064800095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9983.6850128580118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4933.819429605006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17986.757673727989</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19700.67649695999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16856.25449613799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15328.326809719991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22923.498805923999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8876-4106-99FC-FCD230287503}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>600</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$8:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>13309.423204613006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14795.219741103007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12505.732520182995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4896.4230544680031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1027.5564033040137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>625.98076858499553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14160.934351611009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1022.5427205720043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11508.308444218012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13377.270441683999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4427.2251704749942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13091.156148131005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37024.30164847101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17366.234631522995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20657.556163292989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18283.980164098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16379.051651791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11934.382632380992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15053.885604607989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21106.916961596988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21504.45577176899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22145.905281635991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33383.464947623987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23282.658079499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21738.753184725996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8876-4106-99FC-FCD230287503}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10128.570103281992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24646.906035807013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18620.79956174799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17167.835012188996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24421.680461201002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85937.364138904202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26609.413499777002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13755.492557104997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21655.27800578301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27374.877234726009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2697.7172817369865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22357.360986298998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18630.07871960901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42996.184850249003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34643.889280734991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25063.235452118999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25800.377700176992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40038.054219592013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20449.539055125992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32958.578435814998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24253.211473153991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26550.707191572001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36873.003299476986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40975.926185924007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39547.761173587991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8876-4106-99FC-FCD230287503}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$10:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>159018.5011224109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4297.3578987960063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68302.646403309001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60042.604195459004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21435.887089341995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8666.8468463530007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18757.756178221985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11740.829683021992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23539.413014974998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48731.864741640995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15242.454815341014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25106.532996811991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4138.418602441001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11416.533313197986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27621.828208482009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16206.825782361004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8995.2687171860016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11584.681222407002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128734.6411959867</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10907.923693263001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23908.132953143999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21776.754427825013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15515.909975651011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22871.380314507987</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21972.342786266992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8876-4106-99FC-FCD230287503}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1244730767"/>
+        <c:axId val="1244732431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1244730767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244732431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1244732431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244730767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -608,6 +1586,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1124,27 +2142,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>435078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>481852</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>554842</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D5D799-A534-4595-B142-B46BED732ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,6 +2691,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450848</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151309</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1428,64 +2998,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +3125,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1645,7 +3205,7 @@
         <v>201606.34278626699</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>300</v>
       </c>
@@ -1725,37 +3285,633 @@
         <v>219181.76117358799</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>600</v>
       </c>
+      <c r="B5">
+        <v>192943.42320461301</v>
+      </c>
+      <c r="C5">
+        <v>164838.78025889699</v>
+      </c>
+      <c r="D5">
+        <v>192139.732520183</v>
+      </c>
+      <c r="E5">
+        <v>174737.576945532</v>
+      </c>
       <c r="F5">
-        <v>171217.63283469999</v>
+        <v>178606.44359669599</v>
+      </c>
+      <c r="G5">
+        <v>179008.019231415</v>
+      </c>
+      <c r="H5">
+        <v>193794.93435161101</v>
+      </c>
+      <c r="I5">
+        <v>178611.457279428</v>
+      </c>
+      <c r="J5">
+        <v>191142.30844421801</v>
       </c>
       <c r="K5">
-        <v>189276.730882745</v>
+        <v>193011.270441684</v>
+      </c>
+      <c r="L5">
+        <v>184061.22517047499</v>
+      </c>
+      <c r="M5">
+        <v>192725.15614813101</v>
+      </c>
+      <c r="N5">
+        <v>216658.30164847101</v>
+      </c>
+      <c r="O5">
+        <v>197000.234631523</v>
       </c>
       <c r="P5">
-        <v>212892.79194965999</v>
+        <v>200291.55616329299</v>
+      </c>
+      <c r="Q5">
+        <v>197917.980164098</v>
+      </c>
+      <c r="R5">
+        <v>196013.051651791</v>
+      </c>
+      <c r="S5">
+        <v>191568.38263238099</v>
+      </c>
+      <c r="T5">
+        <v>194687.88560460799</v>
       </c>
       <c r="U5">
-        <v>215822.464208847</v>
+        <v>200740.91696159699</v>
+      </c>
+      <c r="V5">
+        <v>201138.45577176899</v>
+      </c>
+      <c r="W5">
+        <v>201779.90528163599</v>
+      </c>
+      <c r="X5">
+        <v>213017.46494762399</v>
+      </c>
+      <c r="Y5">
+        <v>202916.658079499</v>
       </c>
       <c r="Z5">
-        <v>218381.84555455099</v>
+        <v>201372.753184726</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>189901.22322230201</v>
+      </c>
+      <c r="C6">
+        <v>199062.04556232199</v>
+      </c>
+      <c r="D6">
+        <v>172397.608419714</v>
+      </c>
+      <c r="E6">
+        <v>186611.00753969501</v>
+      </c>
+      <c r="F6">
+        <v>182162.94362475301</v>
+      </c>
+      <c r="G6">
+        <v>189142.22611109601</v>
+      </c>
+      <c r="H6">
+        <v>190579.537922146</v>
+      </c>
+      <c r="I6">
+        <v>191894.96544036799</v>
+      </c>
+      <c r="J6">
+        <v>202046.52989996201</v>
+      </c>
+      <c r="K6">
+        <v>172903.736613635</v>
+      </c>
+      <c r="L6">
+        <v>168761.21459294701</v>
+      </c>
+      <c r="M6">
+        <v>184493.17781172</v>
+      </c>
+      <c r="N6">
+        <v>143292.08947606399</v>
+      </c>
+      <c r="O6">
+        <v>168315.125027236</v>
+      </c>
+      <c r="P6">
+        <v>185729.64778636099</v>
+      </c>
+      <c r="Q6">
+        <v>186544.73067736701</v>
+      </c>
+      <c r="R6">
+        <v>186766.417108375</v>
+      </c>
+      <c r="S6">
+        <v>187086.52600648001</v>
+      </c>
+      <c r="T6">
+        <v>189617.68501285801</v>
+      </c>
+      <c r="U6">
+        <v>184567.81942960501</v>
+      </c>
+      <c r="V6">
+        <v>197620.75767372799</v>
+      </c>
+      <c r="W6">
+        <v>199334.67649695999</v>
+      </c>
+      <c r="X6">
+        <v>196490.25449613799</v>
+      </c>
+      <c r="Y6">
+        <v>194962.32680971999</v>
+      </c>
+      <c r="Z6">
+        <v>202557.498805924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <f>ABS(B6-179634)</f>
+        <v>10267.223222302011</v>
+      </c>
+      <c r="C7">
+        <f>ABS(C6-179634)</f>
+        <v>19428.04556232199</v>
+      </c>
+      <c r="D7">
+        <f>ABS(D6-179634)</f>
+        <v>7236.3915802859992</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:Z7" si="0">ABS(E6-179634)</f>
+        <v>6977.0075396950124</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2528.9436247530102</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>9508.2261110960098</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>10945.537922146003</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>12260.965440367989</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>22412.529899962014</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6730.2633863649971</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>10872.785407052987</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4859.177811720001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>36341.910523936007</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>11318.874972763995</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6095.6477863609907</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6910.7306773670134</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>7132.417108374997</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>7452.5260064800095</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>9983.6850128580118</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>4933.819429605006</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>17986.757673727989</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>19700.67649695999</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>16856.25449613799</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>15328.326809719991</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>22923.498805923999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="3">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <f>ABS(B5-179634)</f>
+        <v>13309.423204613006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:Z8" si="1">ABS(C5-179634)</f>
+        <v>14795.219741103007</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>12505.732520182995</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>4896.4230544680031</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1027.5564033040137</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>625.98076858499553</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>14160.934351611009</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1022.5427205720043</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>11508.308444218012</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>13377.270441683999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>4427.2251704749942</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>13091.156148131005</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>37024.30164847101</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>17366.234631522995</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>20657.556163292989</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>18283.980164098</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>16379.051651791</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>11934.382632380992</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>15053.885604607989</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>21106.916961596988</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>21504.45577176899</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>22145.905281635991</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>33383.464947623987</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>23282.658079499</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>21738.753184725996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="3">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <f>ABS(B4-179634)</f>
+        <v>10128.570103281992</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:Z9" si="2">ABS(C4-179634)</f>
+        <v>24646.906035807013</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>18620.79956174799</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>17167.835012188996</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>24421.680461201002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>85937.364138904202</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>26609.413499777002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>13755.492557104997</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>21655.27800578301</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>27374.877234726009</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>2697.7172817369865</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>22357.360986298998</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>18630.07871960901</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>42996.184850249003</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>34643.889280734991</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>25063.235452118999</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>25800.377700176992</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>40038.054219592013</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>20449.539055125992</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>32958.578435814998</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>24253.211473153991</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>26550.707191572001</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>36873.003299476986</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>40975.926185924007</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>39547.761173587991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="3">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <f>ABS(B3-179634)</f>
+        <v>159018.5011224109</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:Z10" si="3">ABS(C3-179634)</f>
+        <v>4297.3578987960063</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>68302.646403309001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>60042.604195459004</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>21435.887089341995</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>8666.8468463530007</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>18757.756178221985</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>11740.829683021992</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>23539.413014974998</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>48731.864741640995</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>15242.454815341014</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>25106.532996811991</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>4138.418602441001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>11416.533313197986</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>27621.828208482009</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>16206.825782361004</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>8995.2687171860016</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>11584.681222407002</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>128734.6411959867</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>10907.923693263001</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>23908.132953143999</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>21776.754427825013</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>15515.909975651011</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>22871.380314507987</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>21972.342786266992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26"/>
+    <row r="13" spans="1:26">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:26"/>
+    <row r="15" spans="1:26">
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16"/>
+    <row r="18" spans="16:16">
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>179634</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A5ED0-3732-4541-BC03-B4D94A89DBCE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/rough detection evaluation.xlsx
+++ b/data/rough detection evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\Socket_3Detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F7371-979F-4DAB-9F8C-4F4A25F64B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5746DB7-A841-45D5-B1F9-456D9EC5DA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rough detection" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>dataset\iteration number</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>delta Dx, Dy, Dz</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>Plug</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,6 +106,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,6 +1555,494 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'fine detection'!$B$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>791581.40359397698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>568037.02273807605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>757170.0317392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725533.41389644297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>843016.860306649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>744905.60813658603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>765667.81989947997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>713890.47754329199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>741785.07029414899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>544685.96085244499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>720655.67184197204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>737892.77921639802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>768002.56736206799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>794301.86031871801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>775901.92505946197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>774379.28911221703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>768241.27916546096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>759983.57560704194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>798893.68633358204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>808361.12534580403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>817618.25232239498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>783102.51103498996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>812105.78632631502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803781.95372366905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>825340.15761123796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7D2-4B15-B09A-261C0979EA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'fine detection'!$B$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>126509.094242701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121950.6016861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112273.32048179601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103277.90362216601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124229.745894012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122283.071301663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121056.011059496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117689.82261991499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122260.63249664901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116804.66644046801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125627.05501353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122436.69959345199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108683.738790747</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122980.73178032599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114740.681484259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>117987.37328424399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>118259.814930019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118345.43948623299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119386.35570907401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128898.030788448</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126114.27682339201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123864.52329065499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130169.176358236</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>129858.616862346</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129337.773451167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7D2-4B15-B09A-261C0979EA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="802812336"/>
+        <c:axId val="802818896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="802812336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802818896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="802818896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802812336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1626,6 +2123,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2305,6 +2842,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2727,6 +3767,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F3FEEE-B6E6-4BA1-9E53-1E41FD480111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3001,7 +4082,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="A2" sqref="A2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3016,34 +4097,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
@@ -3865,11 +4946,9 @@
         <v>21972.342786266992</v>
       </c>
     </row>
-    <row r="11" spans="1:26"/>
     <row r="13" spans="1:26">
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:26"/>
     <row r="15" spans="1:26">
       <c r="P15" t="s">
         <v>2</v>
@@ -3880,7 +4959,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="16:16"/>
     <row r="18" spans="16:16">
       <c r="P18" t="s">
         <v>4</v>
@@ -3904,14 +4982,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A5ED0-3732-4541-BC03-B4D94A89DBCE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
+      </c>
+      <c r="H1">
+        <v>70</v>
+      </c>
+      <c r="I1">
+        <v>80</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+      <c r="L1">
+        <v>110</v>
+      </c>
+      <c r="M1">
+        <v>120</v>
+      </c>
+      <c r="N1">
+        <v>130</v>
+      </c>
+      <c r="O1">
+        <v>140</v>
+      </c>
+      <c r="P1">
+        <v>150</v>
+      </c>
+      <c r="Q1">
+        <v>160</v>
+      </c>
+      <c r="R1">
+        <v>170</v>
+      </c>
+      <c r="S1">
+        <v>180</v>
+      </c>
+      <c r="T1">
+        <v>190</v>
+      </c>
+      <c r="U1">
+        <v>200</v>
+      </c>
+      <c r="V1">
+        <v>210</v>
+      </c>
+      <c r="W1">
+        <v>220</v>
+      </c>
+      <c r="X1">
+        <v>230</v>
+      </c>
+      <c r="Y1">
+        <v>240</v>
+      </c>
+      <c r="Z1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>791581.40359397698</v>
+      </c>
+      <c r="C2">
+        <v>568037.02273807605</v>
+      </c>
+      <c r="D2">
+        <v>757170.0317392</v>
+      </c>
+      <c r="E2">
+        <v>725533.41389644297</v>
+      </c>
+      <c r="F2">
+        <v>843016.860306649</v>
+      </c>
+      <c r="G2">
+        <v>744905.60813658603</v>
+      </c>
+      <c r="H2">
+        <v>765667.81989947997</v>
+      </c>
+      <c r="I2">
+        <v>713890.47754329199</v>
+      </c>
+      <c r="J2">
+        <v>741785.07029414899</v>
+      </c>
+      <c r="K2">
+        <v>544685.96085244499</v>
+      </c>
+      <c r="L2">
+        <v>720655.67184197204</v>
+      </c>
+      <c r="M2">
+        <v>737892.77921639802</v>
+      </c>
+      <c r="N2">
+        <v>768002.56736206799</v>
+      </c>
+      <c r="O2">
+        <v>794301.86031871801</v>
+      </c>
+      <c r="P2">
+        <v>775901.92505946197</v>
+      </c>
+      <c r="Q2">
+        <v>774379.28911221703</v>
+      </c>
+      <c r="R2">
+        <v>768241.27916546096</v>
+      </c>
+      <c r="S2">
+        <v>759983.57560704194</v>
+      </c>
+      <c r="T2">
+        <v>798893.68633358204</v>
+      </c>
+      <c r="U2">
+        <v>808361.12534580403</v>
+      </c>
+      <c r="V2">
+        <v>817618.25232239498</v>
+      </c>
+      <c r="W2">
+        <v>783102.51103498996</v>
+      </c>
+      <c r="X2">
+        <v>812105.78632631502</v>
+      </c>
+      <c r="Y2">
+        <v>803781.95372366905</v>
+      </c>
+      <c r="Z2">
+        <v>825340.15761123796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>126509.094242701</v>
+      </c>
+      <c r="C3">
+        <v>121950.6016861</v>
+      </c>
+      <c r="D3">
+        <v>112273.32048179601</v>
+      </c>
+      <c r="E3">
+        <v>103277.90362216601</v>
+      </c>
+      <c r="F3">
+        <v>124229.745894012</v>
+      </c>
+      <c r="G3">
+        <v>122283.071301663</v>
+      </c>
+      <c r="H3">
+        <v>121056.011059496</v>
+      </c>
+      <c r="I3">
+        <v>117689.82261991499</v>
+      </c>
+      <c r="J3">
+        <v>122260.63249664901</v>
+      </c>
+      <c r="K3">
+        <v>116804.66644046801</v>
+      </c>
+      <c r="L3">
+        <v>125627.05501353</v>
+      </c>
+      <c r="M3">
+        <v>122436.69959345199</v>
+      </c>
+      <c r="N3">
+        <v>108683.738790747</v>
+      </c>
+      <c r="O3">
+        <v>122980.73178032599</v>
+      </c>
+      <c r="P3">
+        <v>114740.681484259</v>
+      </c>
+      <c r="Q3">
+        <v>117987.37328424399</v>
+      </c>
+      <c r="R3">
+        <v>118259.814930019</v>
+      </c>
+      <c r="S3">
+        <v>118345.43948623299</v>
+      </c>
+      <c r="T3">
+        <v>119386.35570907401</v>
+      </c>
+      <c r="U3">
+        <v>128898.030788448</v>
+      </c>
+      <c r="V3">
+        <v>126114.27682339201</v>
+      </c>
+      <c r="W3">
+        <v>123864.52329065499</v>
+      </c>
+      <c r="X3">
+        <v>130169.176358236</v>
+      </c>
+      <c r="Y3">
+        <v>129858.616862346</v>
+      </c>
+      <c r="Z3">
+        <v>129337.773451167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/rough detection evaluation.xlsx
+++ b/data/rough detection evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\Socket_3Detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5746DB7-A841-45D5-B1F9-456D9EC5DA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2E454-DA00-4C51-8CD0-39A3C6AD09F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rough detection" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>dataset\iteration number</t>
   </si>
@@ -43,17 +43,26 @@
     <t>delta Dx, Dy, Dz</t>
   </si>
   <si>
-    <t>Socket</t>
+    <t>Socket （1000）</t>
   </si>
   <si>
-    <t>Plug</t>
+    <t>Plug （1000）</t>
+  </si>
+  <si>
+    <t>Plug（300）</t>
+  </si>
+  <si>
+    <t>Socket （300）</t>
+  </si>
+  <si>
+    <t>Delta volume with angle and distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +82,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -112,6 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,6 +678,127 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC8C-4036-8355-514DBCC37164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>standard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough detection'!$B$11:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>179634</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>179634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DA3-4781-A4EA-C77769F64316}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,8 +937,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.43837950446752699"/>
           <c:y val="0.95995059202717437"/>
-          <c:w val="0.25425904614514167"/>
-          <c:h val="4.0049578824236334E-2"/>
+          <c:w val="0.23812320225153516"/>
+          <c:h val="3.3787642066728997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1608,6 +1747,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Socket_1000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1726,6 +1868,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Plug_1000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1838,6 +1983,248 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D7D2-4B15-B09A-261C0979EA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>socket_300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'fine detection'!$B$5:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>626532.90234890697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>598989.90785503201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>592744.874295227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400099.49789183802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>673776.34071303299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180241.94584757401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>742265.22524613095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>642000.18017130496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>635912.79119073297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>564621.64116424904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>710484.37089932302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226169.86464481</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119063.408984472</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>636214.33583137998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>446032.74438807502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>179534.55940403001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>590158.79908027896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>538547.67407208995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>652014.68512091401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>622204.67533177196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>680840.51804556197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>709127.92960881803</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>742148.79281208303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>717625.39783427306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-018C-4B66-86F5-9B55DAE25546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Plug_300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'fine detection'!$B$6:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105646.20265684099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107810.76946644401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88441.827539356906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55786.400929345698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121787.824154505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102449.224573215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117070.397246846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120018.778120168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110883.916115311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110727.148975198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119925.57775077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94731.767782612893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100915.22690094401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119815.32220827301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110943.672249571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115985.88931104699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113151.942195631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123565.213131472</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128907.836747861</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110292.19518460199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127523.17985874999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114619.902550703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>125068.796016173</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>112386.439552375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-018C-4B66-86F5-9B55DAE25546}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3703,15 +4090,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>435078</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68716</xdr:rowOff>
+      <xdr:colOff>217364</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>554842</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>29526</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3779,16 +4166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>293914</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4079,10 +4466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:DC50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4946,6 +5333,83 @@
         <v>21972.342786266992</v>
       </c>
     </row>
+    <row r="11" spans="1:26">
+      <c r="B11">
+        <v>179634</v>
+      </c>
+      <c r="C11">
+        <v>179634</v>
+      </c>
+      <c r="D11">
+        <v>179634</v>
+      </c>
+      <c r="E11">
+        <v>179634</v>
+      </c>
+      <c r="F11">
+        <v>179634</v>
+      </c>
+      <c r="G11">
+        <v>179634</v>
+      </c>
+      <c r="H11">
+        <v>179634</v>
+      </c>
+      <c r="I11">
+        <v>179634</v>
+      </c>
+      <c r="J11">
+        <v>179634</v>
+      </c>
+      <c r="K11">
+        <v>179634</v>
+      </c>
+      <c r="L11">
+        <v>179634</v>
+      </c>
+      <c r="M11">
+        <v>179634</v>
+      </c>
+      <c r="N11">
+        <v>179634</v>
+      </c>
+      <c r="O11">
+        <v>179634</v>
+      </c>
+      <c r="P11">
+        <v>179634</v>
+      </c>
+      <c r="Q11">
+        <v>179634</v>
+      </c>
+      <c r="R11">
+        <v>179634</v>
+      </c>
+      <c r="S11">
+        <v>179634</v>
+      </c>
+      <c r="T11">
+        <v>179634</v>
+      </c>
+      <c r="U11">
+        <v>179634</v>
+      </c>
+      <c r="V11">
+        <v>179634</v>
+      </c>
+      <c r="W11">
+        <v>179634</v>
+      </c>
+      <c r="X11">
+        <v>179634</v>
+      </c>
+      <c r="Y11">
+        <v>179634</v>
+      </c>
+      <c r="Z11">
+        <v>179634</v>
+      </c>
+    </row>
     <row r="13" spans="1:26">
       <c r="S13" s="4"/>
     </row>
@@ -4967,6 +5431,657 @@
     <row r="40" spans="1:1">
       <c r="A40">
         <v>179634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.6">
+      <c r="A46" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:107">
+      <c r="A49">
+        <v>0.20540523158201701</v>
+      </c>
+      <c r="B49">
+        <v>0.199213143797628</v>
+      </c>
+      <c r="C49">
+        <v>0.184358883165197</v>
+      </c>
+      <c r="D49">
+        <v>0.198966117241407</v>
+      </c>
+      <c r="E49">
+        <v>0.19405942184689301</v>
+      </c>
+      <c r="F49">
+        <v>0.20675374229200499</v>
+      </c>
+      <c r="G49">
+        <v>0.20821521612437299</v>
+      </c>
+      <c r="H49">
+        <v>0.20726764985632801</v>
+      </c>
+      <c r="I49">
+        <v>0.20124287742010699</v>
+      </c>
+      <c r="J49">
+        <v>0.19403738689764699</v>
+      </c>
+      <c r="K49">
+        <v>0.20475040315653301</v>
+      </c>
+      <c r="L49">
+        <v>0.216806136802076</v>
+      </c>
+      <c r="M49">
+        <v>0.20551947691931099</v>
+      </c>
+      <c r="N49">
+        <v>0.20345533998895099</v>
+      </c>
+      <c r="O49">
+        <v>0.16557581020068901</v>
+      </c>
+      <c r="P49">
+        <v>0.201731205068856</v>
+      </c>
+      <c r="Q49">
+        <v>0.20004308113046099</v>
+      </c>
+      <c r="R49">
+        <v>0.19255284115320201</v>
+      </c>
+      <c r="S49">
+        <v>0.195981740119132</v>
+      </c>
+      <c r="T49">
+        <v>0.209541453608203</v>
+      </c>
+      <c r="U49">
+        <v>0.201938045179063</v>
+      </c>
+      <c r="V49">
+        <v>0.20785152086484401</v>
+      </c>
+      <c r="W49">
+        <v>0.215728320484772</v>
+      </c>
+      <c r="X49">
+        <v>0.201550040276819</v>
+      </c>
+      <c r="Y49">
+        <v>0.206104765938354</v>
+      </c>
+      <c r="Z49">
+        <v>0.21805218340850299</v>
+      </c>
+      <c r="AA49">
+        <v>0.20098984084070001</v>
+      </c>
+      <c r="AB49">
+        <v>0.20632378302058699</v>
+      </c>
+      <c r="AC49">
+        <v>0.19133288461461101</v>
+      </c>
+      <c r="AD49">
+        <v>0.208463172516405</v>
+      </c>
+      <c r="AE49">
+        <v>0.197026883269386</v>
+      </c>
+      <c r="AF49">
+        <v>0.18928589859775499</v>
+      </c>
+      <c r="AG49">
+        <v>0.19971259603504599</v>
+      </c>
+      <c r="AH49">
+        <v>0.20865458790231101</v>
+      </c>
+      <c r="AI49">
+        <v>0.21420933237571499</v>
+      </c>
+      <c r="AJ49">
+        <v>0.207985633892491</v>
+      </c>
+      <c r="AK49">
+        <v>0.202779807353418</v>
+      </c>
+      <c r="AL49">
+        <v>0.20794165272369899</v>
+      </c>
+      <c r="AM49">
+        <v>0.19751353816027201</v>
+      </c>
+      <c r="AN49">
+        <v>0.21217318377786001</v>
+      </c>
+      <c r="AO49">
+        <v>0.203521714103607</v>
+      </c>
+      <c r="AP49">
+        <v>0.21071737688616399</v>
+      </c>
+      <c r="AQ49">
+        <v>0.20254929264784899</v>
+      </c>
+      <c r="AR49">
+        <v>0.22290022169801799</v>
+      </c>
+      <c r="AS49">
+        <v>0.19868881282374001</v>
+      </c>
+      <c r="AT49">
+        <v>0.199863124409844</v>
+      </c>
+      <c r="AU49">
+        <v>0.188845338351216</v>
+      </c>
+      <c r="AV49">
+        <v>0.20743271998339499</v>
+      </c>
+      <c r="AW49">
+        <v>0.213594758486541</v>
+      </c>
+      <c r="AX49">
+        <v>0.17737826500919199</v>
+      </c>
+      <c r="AY49">
+        <v>0.19503879558890999</v>
+      </c>
+      <c r="AZ49">
+        <v>0.200077403456356</v>
+      </c>
+      <c r="BA49">
+        <v>0.202686293342245</v>
+      </c>
+      <c r="BB49">
+        <v>0.139568847862096</v>
+      </c>
+      <c r="BC49">
+        <v>0.19791977697747101</v>
+      </c>
+      <c r="BD49">
+        <v>0.213111878228393</v>
+      </c>
+      <c r="BE49">
+        <v>0.19850804030994701</v>
+      </c>
+      <c r="BF49">
+        <v>0.18653584082695501</v>
+      </c>
+      <c r="BG49">
+        <v>0.21334613768239299</v>
+      </c>
+      <c r="BH49">
+        <v>0.21354190865945499</v>
+      </c>
+      <c r="BI49">
+        <v>0.21657575784182301</v>
+      </c>
+      <c r="BJ49">
+        <v>0.204861259262242</v>
+      </c>
+      <c r="BK49">
+        <v>0.20984496797722099</v>
+      </c>
+      <c r="BL49">
+        <v>0.21287172287770201</v>
+      </c>
+      <c r="BM49">
+        <v>0.19042249871105699</v>
+      </c>
+      <c r="BN49">
+        <v>0.17160250584127301</v>
+      </c>
+      <c r="BO49">
+        <v>0.1510600358043</v>
+      </c>
+      <c r="BP49">
+        <v>0.17844775612799599</v>
+      </c>
+      <c r="BQ49">
+        <v>0.200841956588029</v>
+      </c>
+      <c r="BR49">
+        <v>0.16518920802383399</v>
+      </c>
+      <c r="BS49">
+        <v>0.15457330529957999</v>
+      </c>
+      <c r="BT49">
+        <v>0.19752214126406301</v>
+      </c>
+      <c r="BU49">
+        <v>0.22335437156958601</v>
+      </c>
+      <c r="BV49">
+        <v>0.21594774531875899</v>
+      </c>
+      <c r="BW49">
+        <v>0.21630096342768099</v>
+      </c>
+      <c r="BX49">
+        <v>0.21244658522875001</v>
+      </c>
+      <c r="BY49">
+        <v>0.19491047342925399</v>
+      </c>
+      <c r="BZ49">
+        <v>0.19469469851545901</v>
+      </c>
+      <c r="CA49">
+        <v>0.18856916605346999</v>
+      </c>
+      <c r="CB49">
+        <v>0.19550204199848301</v>
+      </c>
+      <c r="CC49">
+        <v>0.18702252615619999</v>
+      </c>
+      <c r="CD49">
+        <v>0.167399419777949</v>
+      </c>
+      <c r="CE49">
+        <v>0.153538922380238</v>
+      </c>
+      <c r="CF49">
+        <v>0.191832146278059</v>
+      </c>
+      <c r="CG49">
+        <v>0.21460116271126101</v>
+      </c>
+      <c r="CH49">
+        <v>0.22011831746259999</v>
+      </c>
+      <c r="CI49">
+        <v>0.19125523131573799</v>
+      </c>
+      <c r="CJ49">
+        <v>0.16068837957263399</v>
+      </c>
+      <c r="CK49">
+        <v>0.19384952675469699</v>
+      </c>
+      <c r="CL49">
+        <v>0.218089013861923</v>
+      </c>
+      <c r="CM49">
+        <v>0.187806351026368</v>
+      </c>
+      <c r="CN49">
+        <v>0.21884546334289601</v>
+      </c>
+      <c r="CO49">
+        <v>0.220149004493327</v>
+      </c>
+      <c r="CP49">
+        <v>0.21645680640812001</v>
+      </c>
+      <c r="CQ49">
+        <v>0.195991576476159</v>
+      </c>
+      <c r="CR49">
+        <v>0.20249760861229299</v>
+      </c>
+      <c r="CS49">
+        <v>0.21300235532780601</v>
+      </c>
+      <c r="CT49">
+        <v>0.20142357451752499</v>
+      </c>
+      <c r="CU49">
+        <v>0.154649849950589</v>
+      </c>
+      <c r="CV49">
+        <v>0.213512976436427</v>
+      </c>
+      <c r="CW49">
+        <v>0.18719887101607399</v>
+      </c>
+      <c r="CX49">
+        <v>0.22422883943854699</v>
+      </c>
+      <c r="CY49">
+        <v>0.21244891932968299</v>
+      </c>
+      <c r="CZ49">
+        <v>0.2112529422235</v>
+      </c>
+      <c r="DA49">
+        <v>0.18271217371656401</v>
+      </c>
+      <c r="DB49">
+        <v>0.20377346281253</v>
+      </c>
+      <c r="DC49">
+        <v>0.21200442567701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:107">
+      <c r="A50">
+        <v>1.98563328194356E-2</v>
+      </c>
+      <c r="B50">
+        <v>1.9616446218206501E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.101831452913342</v>
+      </c>
+      <c r="D50">
+        <v>3.9580081833596098E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.1436976645642099E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.7274826313019801E-2</v>
+      </c>
+      <c r="G50">
+        <v>3.1315062172027001E-2</v>
+      </c>
+      <c r="H50">
+        <v>3.2452421924759403E-2</v>
+      </c>
+      <c r="I50">
+        <v>6.1622690383930603E-2</v>
+      </c>
+      <c r="J50">
+        <v>7.0768693937984906E-2</v>
+      </c>
+      <c r="K50">
+        <v>4.08141881623608E-2</v>
+      </c>
+      <c r="L50">
+        <v>4.1163591086418698E-2</v>
+      </c>
+      <c r="M50">
+        <v>3.1341672014278302E-2</v>
+      </c>
+      <c r="N50">
+        <v>6.0631920815434302E-2</v>
+      </c>
+      <c r="O50">
+        <v>9.3831748327552797E-2</v>
+      </c>
+      <c r="P50">
+        <v>4.1987099593651697E-2</v>
+      </c>
+      <c r="Q50">
+        <v>2.6840438798978201E-2</v>
+      </c>
+      <c r="R50">
+        <v>7.7175409832098904E-2</v>
+      </c>
+      <c r="S50">
+        <v>1.74721650167259E-2</v>
+      </c>
+      <c r="T50">
+        <v>3.10445406734726E-2</v>
+      </c>
+      <c r="U50">
+        <v>4.2830126325380698E-2</v>
+      </c>
+      <c r="V50">
+        <v>2.61380517012074E-2</v>
+      </c>
+      <c r="W50">
+        <v>2.6266950910181601E-2</v>
+      </c>
+      <c r="X50">
+        <v>5.17190260835374E-2</v>
+      </c>
+      <c r="Y50">
+        <v>2.1575798228106999E-2</v>
+      </c>
+      <c r="Z50">
+        <v>2.2081362935174199E-2</v>
+      </c>
+      <c r="AA50">
+        <v>3.2364016783188301E-2</v>
+      </c>
+      <c r="AB50">
+        <v>9.38750311154685E-3</v>
+      </c>
+      <c r="AC50">
+        <v>3.4154393236586603E-2</v>
+      </c>
+      <c r="AD50">
+        <v>3.1605539316312499E-2</v>
+      </c>
+      <c r="AE50">
+        <v>4.8768984498148003E-2</v>
+      </c>
+      <c r="AF50">
+        <v>5.1629590271766598E-2</v>
+      </c>
+      <c r="AG50">
+        <v>7.7545831638337503E-2</v>
+      </c>
+      <c r="AH50">
+        <v>5.8319711371997297E-2</v>
+      </c>
+      <c r="AI50">
+        <v>6.8550726639157497E-2</v>
+      </c>
+      <c r="AJ50">
+        <v>3.0686106912394501E-2</v>
+      </c>
+      <c r="AK50">
+        <v>3.1618182930263299E-2</v>
+      </c>
+      <c r="AL50">
+        <v>2.2960688405675E-2</v>
+      </c>
+      <c r="AM50">
+        <v>3.3243991751818802E-2</v>
+      </c>
+      <c r="AN50">
+        <v>1.7232959594721001E-2</v>
+      </c>
+      <c r="AO50">
+        <v>3.0258478734650401E-2</v>
+      </c>
+      <c r="AP50">
+        <v>2.7298893040288201E-2</v>
+      </c>
+      <c r="AQ50">
+        <v>3.5890331622938698E-2</v>
+      </c>
+      <c r="AR50">
+        <v>1.8670910580818E-2</v>
+      </c>
+      <c r="AS50">
+        <v>4.6881847615981499E-2</v>
+      </c>
+      <c r="AT50">
+        <v>6.4194277429816496E-2</v>
+      </c>
+      <c r="AU50">
+        <v>6.9700999102769598E-2</v>
+      </c>
+      <c r="AV50">
+        <v>5.6305944559264097E-2</v>
+      </c>
+      <c r="AW50">
+        <v>2.1741737421222901E-2</v>
+      </c>
+      <c r="AX50">
+        <v>3.7165337265408799E-2</v>
+      </c>
+      <c r="AY50">
+        <v>5.4165850575323603E-2</v>
+      </c>
+      <c r="AZ50">
+        <v>3.8484060067826897E-2</v>
+      </c>
+      <c r="BA50">
+        <v>2.4026511440916502E-2</v>
+      </c>
+      <c r="BB50">
+        <v>0.116650350181999</v>
+      </c>
+      <c r="BC50">
+        <v>3.40436926224124E-2</v>
+      </c>
+      <c r="BD50">
+        <v>3.4749353976262401E-2</v>
+      </c>
+      <c r="BE50">
+        <v>6.5559768207648E-2</v>
+      </c>
+      <c r="BF50">
+        <v>6.1114384562347003E-2</v>
+      </c>
+      <c r="BG50">
+        <v>5.2454809061436201E-2</v>
+      </c>
+      <c r="BH50">
+        <v>3.5756627770911001E-2</v>
+      </c>
+      <c r="BI50">
+        <v>4.3515076561474499E-2</v>
+      </c>
+      <c r="BJ50">
+        <v>6.8581150581420003E-2</v>
+      </c>
+      <c r="BK50">
+        <v>3.7287400047116503E-2</v>
+      </c>
+      <c r="BL50">
+        <v>3.2160666127163701E-2</v>
+      </c>
+      <c r="BM50">
+        <v>6.0906678061888299E-2</v>
+      </c>
+      <c r="BN50">
+        <v>5.0661380443704503E-2</v>
+      </c>
+      <c r="BO50">
+        <v>0.16118306641559199</v>
+      </c>
+      <c r="BP50">
+        <v>9.5181358018949294E-2</v>
+      </c>
+      <c r="BQ50">
+        <v>6.1616356512078099E-2</v>
+      </c>
+      <c r="BR50">
+        <v>9.9851619977277595E-2</v>
+      </c>
+      <c r="BS50">
+        <v>6.3864728923902103E-2</v>
+      </c>
+      <c r="BT50">
+        <v>3.7837288711768099E-2</v>
+      </c>
+      <c r="BU50">
+        <v>4.62764541322409E-2</v>
+      </c>
+      <c r="BV50">
+        <v>3.1372876446341298E-2</v>
+      </c>
+      <c r="BW50">
+        <v>3.2105394021620798E-2</v>
+      </c>
+      <c r="BX50">
+        <v>3.3393905481034998E-2</v>
+      </c>
+      <c r="BY50">
+        <v>5.8162696508688203E-2</v>
+      </c>
+      <c r="BZ50">
+        <v>2.89444914307109E-2</v>
+      </c>
+      <c r="CA50">
+        <v>5.1496753063995399E-2</v>
+      </c>
+      <c r="CB50">
+        <v>5.9282988906479699E-2</v>
+      </c>
+      <c r="CC50">
+        <v>6.3488685718810695E-2</v>
+      </c>
+      <c r="CD50">
+        <v>0.11675825734214</v>
+      </c>
+      <c r="CE50">
+        <v>0.105260130295774</v>
+      </c>
+      <c r="CF50">
+        <v>8.5699374192888894E-2</v>
+      </c>
+      <c r="CG50">
+        <v>5.2906694116322303E-2</v>
+      </c>
+      <c r="CH50">
+        <v>3.9838605046243501E-2</v>
+      </c>
+      <c r="CI50">
+        <v>0.13153091215905799</v>
+      </c>
+      <c r="CJ50">
+        <v>0.101368238466032</v>
+      </c>
+      <c r="CK50">
+        <v>1.8391557603275301E-2</v>
+      </c>
+      <c r="CL50">
+        <v>2.68923606664156E-2</v>
+      </c>
+      <c r="CM50">
+        <v>4.4498612465227599E-2</v>
+      </c>
+      <c r="CN50">
+        <v>3.3081077067606102E-2</v>
+      </c>
+      <c r="CO50">
+        <v>3.0802905027139799E-2</v>
+      </c>
+      <c r="CP50">
+        <v>2.3375598580273799E-2</v>
+      </c>
+      <c r="CQ50">
+        <v>6.4322232515279298E-2</v>
+      </c>
+      <c r="CR50">
+        <v>6.0858632467939197E-2</v>
+      </c>
+      <c r="CS50">
+        <v>4.4024559530056601E-2</v>
+      </c>
+      <c r="CT50">
+        <v>5.3253084738386101E-2</v>
+      </c>
+      <c r="CU50">
+        <v>0.117937136562682</v>
+      </c>
+      <c r="CV50">
+        <v>2.7525500652465999E-2</v>
+      </c>
+      <c r="CW50">
+        <v>7.4901200832401399E-2</v>
+      </c>
+      <c r="CX50">
+        <v>4.7206418255512597E-2</v>
+      </c>
+      <c r="CY50">
+        <v>4.1322978754433498E-2</v>
+      </c>
+      <c r="CZ50">
+        <v>5.48808477991891E-2</v>
+      </c>
+      <c r="DA50">
+        <v>7.4550101415727696E-2</v>
+      </c>
+      <c r="DB50">
+        <v>6.1220698385198301E-2</v>
+      </c>
+      <c r="DC50">
+        <v>2.5988252537119699E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4982,13 +6097,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A5ED0-3732-4541-BC03-B4D94A89DBCE}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z3"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
@@ -5228,6 +6347,166 @@
       </c>
       <c r="Z3">
         <v>129337.773451167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>626532.90234890697</v>
+      </c>
+      <c r="D5">
+        <v>598989.90785503201</v>
+      </c>
+      <c r="E5">
+        <v>592744.874295227</v>
+      </c>
+      <c r="F5">
+        <v>400099.49789183802</v>
+      </c>
+      <c r="G5">
+        <v>673776.34071303299</v>
+      </c>
+      <c r="H5">
+        <v>180241.94584757401</v>
+      </c>
+      <c r="I5">
+        <v>742265.22524613095</v>
+      </c>
+      <c r="J5">
+        <v>642000.18017130496</v>
+      </c>
+      <c r="K5">
+        <v>635912.79119073297</v>
+      </c>
+      <c r="L5">
+        <v>564621.64116424904</v>
+      </c>
+      <c r="M5">
+        <v>710484.37089932302</v>
+      </c>
+      <c r="N5">
+        <v>226169.86464481</v>
+      </c>
+      <c r="O5">
+        <v>119063.408984472</v>
+      </c>
+      <c r="P5">
+        <v>636214.33583137998</v>
+      </c>
+      <c r="Q5">
+        <v>446032.74438807502</v>
+      </c>
+      <c r="R5">
+        <v>179534.55940403001</v>
+      </c>
+      <c r="S5">
+        <v>590158.79908027896</v>
+      </c>
+      <c r="T5">
+        <v>538547.67407208995</v>
+      </c>
+      <c r="U5">
+        <v>652014.68512091401</v>
+      </c>
+      <c r="V5">
+        <v>622204.67533177196</v>
+      </c>
+      <c r="W5">
+        <v>680840.51804556197</v>
+      </c>
+      <c r="X5">
+        <v>709127.92960881803</v>
+      </c>
+      <c r="Y5">
+        <v>742148.79281208303</v>
+      </c>
+      <c r="Z5">
+        <v>717625.39783427306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>105646.20265684099</v>
+      </c>
+      <c r="D6">
+        <v>107810.76946644401</v>
+      </c>
+      <c r="E6">
+        <v>88441.827539356906</v>
+      </c>
+      <c r="F6">
+        <v>55786.400929345698</v>
+      </c>
+      <c r="G6">
+        <v>121787.824154505</v>
+      </c>
+      <c r="H6">
+        <v>102449.224573215</v>
+      </c>
+      <c r="I6">
+        <v>117070.397246846</v>
+      </c>
+      <c r="J6">
+        <v>120018.778120168</v>
+      </c>
+      <c r="K6">
+        <v>110883.916115311</v>
+      </c>
+      <c r="L6">
+        <v>110727.148975198</v>
+      </c>
+      <c r="M6">
+        <v>119925.57775077</v>
+      </c>
+      <c r="N6">
+        <v>94731.767782612893</v>
+      </c>
+      <c r="O6">
+        <v>100915.22690094401</v>
+      </c>
+      <c r="P6">
+        <v>119815.32220827301</v>
+      </c>
+      <c r="Q6">
+        <v>110943.672249571</v>
+      </c>
+      <c r="R6">
+        <v>115985.88931104699</v>
+      </c>
+      <c r="S6">
+        <v>113151.942195631</v>
+      </c>
+      <c r="T6">
+        <v>123565.213131472</v>
+      </c>
+      <c r="U6">
+        <v>128907.836747861</v>
+      </c>
+      <c r="V6">
+        <v>110292.19518460199</v>
+      </c>
+      <c r="W6">
+        <v>127523.17985874999</v>
+      </c>
+      <c r="X6">
+        <v>114619.902550703</v>
+      </c>
+      <c r="Y6">
+        <v>125068.796016173</v>
+      </c>
+      <c r="Z6">
+        <v>112386.439552375</v>
       </c>
     </row>
   </sheetData>
